--- a/data/trans_dic/P1424_2016_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1424_2016_2023-Estudios-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01429353092532557</v>
+        <v>0.01399415265061436</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04732275203367056</v>
+        <v>0.04527261704104345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0861810439582795</v>
+        <v>0.08894647002015935</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1152650553398113</v>
+        <v>0.113254521541843</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05752590343565916</v>
+        <v>0.05861958550079308</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09150880548394252</v>
+        <v>0.09155950503793321</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03697276510538273</v>
+        <v>0.03671303027782732</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08699181001133781</v>
+        <v>0.08525880206850449</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1266320876519687</v>
+        <v>0.1274183611070263</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.151437842999162</v>
+        <v>0.1492691590452737</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08246346903584914</v>
+        <v>0.0840898919462081</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.119585662992277</v>
+        <v>0.1184153493259855</v>
       </c>
     </row>
     <row r="7">
@@ -700,13 +700,13 @@
         <v>0.05920885239615999</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08637211178929012</v>
+        <v>0.08637211178929011</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0385154443584271</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.06120765614389519</v>
+        <v>0.0612076561438952</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01347885429932094</v>
+        <v>0.01322367129794029</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02914656418572572</v>
+        <v>0.02904404349864214</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04873559507930541</v>
+        <v>0.04929417680365324</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07620673429296757</v>
+        <v>0.0758006164309966</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03287626167624972</v>
+        <v>0.03332575387132638</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05424185081196927</v>
+        <v>0.05464953226266263</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02480246772063401</v>
+        <v>0.02496894753220329</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04660774215472543</v>
+        <v>0.0456571367622013</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07226957024643502</v>
+        <v>0.07151462192971854</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09760492410981138</v>
+        <v>0.09659319592217348</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04549271622005847</v>
+        <v>0.04493614059365389</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06820013725948372</v>
+        <v>0.06805313033998472</v>
       </c>
     </row>
     <row r="10">
@@ -776,13 +776,13 @@
         <v>0.01486324083237682</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04498930663850216</v>
+        <v>0.04498930663850217</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.01559117717294763</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06288279967489056</v>
+        <v>0.06288279967489058</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01522795755785365</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006636692572760499</v>
+        <v>0.006311517371604958</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03078413265317827</v>
+        <v>0.03009490451133038</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008182360436162141</v>
+        <v>0.008279551706045262</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04884675113304268</v>
+        <v>0.04861170587890674</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.008711036967455774</v>
+        <v>0.008876221985197259</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04270349254279023</v>
+        <v>0.04316123241349362</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03026586331092799</v>
+        <v>0.03180363018029236</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06562495801112322</v>
+        <v>0.06708534100535925</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02923735602299869</v>
+        <v>0.02860624774162152</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08102636450297639</v>
+        <v>0.08179903648022278</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02397602645352807</v>
+        <v>0.024943476324848</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06742352213535419</v>
+        <v>0.06816978114535635</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.04283855167069699</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.06804546671446246</v>
+        <v>0.06804546671446247</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01489514166371913</v>
+        <v>0.01472392669863218</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03672543131083711</v>
+        <v>0.03568883834766233</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05655855691326714</v>
+        <v>0.05711824568560549</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08391659407434372</v>
+        <v>0.08357606323993921</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03783069128791797</v>
+        <v>0.03859685075166443</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06317946659388057</v>
+        <v>0.06298361122706955</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02394719352751535</v>
+        <v>0.02411977647737852</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05074652191930378</v>
+        <v>0.04953154949917852</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07408620937480595</v>
+        <v>0.07463530715080383</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1009156447977536</v>
+        <v>0.09988206115157414</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04787855491369553</v>
+        <v>0.04866617234749591</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07387449665639179</v>
+        <v>0.07416012329486328</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10782</v>
+        <v>10556</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>27331</v>
+        <v>26147</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>85721</v>
+        <v>88471</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>94590</v>
+        <v>92940</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>100613</v>
+        <v>102526</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>127945</v>
+        <v>128016</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>27890</v>
+        <v>27694</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>50241</v>
+        <v>49241</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>125956</v>
+        <v>126738</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>124274</v>
+        <v>122494</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>144229</v>
+        <v>147074</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>167201</v>
+        <v>165565</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>27987</v>
+        <v>27457</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>64988</v>
+        <v>64759</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>96901</v>
+        <v>98012</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>165259</v>
+        <v>164378</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>133632</v>
+        <v>135459</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>238570</v>
+        <v>240363</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>51499</v>
+        <v>51845</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>103921</v>
+        <v>101802</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>143694</v>
+        <v>142193</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>211662</v>
+        <v>209468</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>184914</v>
+        <v>182651</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>299962</v>
+        <v>299315</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3630</v>
+        <v>3452</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21806</v>
+        <v>21318</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4493</v>
+        <v>4547</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35896</v>
+        <v>35724</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9548</v>
+        <v>9729</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>61631</v>
+        <v>62292</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16552</v>
+        <v>17393</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>46486</v>
+        <v>47520</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16055</v>
+        <v>15709</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>59544</v>
+        <v>60112</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26278</v>
+        <v>27339</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>97308</v>
+        <v>98385</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>50310</v>
+        <v>49732</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>129112</v>
+        <v>125468</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>199770</v>
+        <v>201747</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>312511</v>
+        <v>311243</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>261399</v>
+        <v>266693</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>457398</v>
+        <v>455980</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>80884</v>
+        <v>81467</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>178404</v>
+        <v>174133</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>261680</v>
+        <v>263619</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>375817</v>
+        <v>371968</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>330827</v>
+        <v>336270</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>534826</v>
+        <v>536894</v>
       </c>
     </row>
     <row r="20">
